--- a/InputFiles/MultiligualTestData.xlsx
+++ b/InputFiles/MultiligualTestData.xlsx
@@ -744,7 +744,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,7 @@
     <col min="2" max="2" width="47.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="38.140625" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>

--- a/InputFiles/MultiligualTestData.xlsx
+++ b/InputFiles/MultiligualTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="132">
   <si>
     <t>Locator</t>
   </si>
@@ -39,9 +39,6 @@
     <t>ईमेल या फ़ोन</t>
   </si>
   <si>
-    <t>//label[@for='email']</t>
-  </si>
-  <si>
     <t xml:space="preserve">மின்னஞ்சல் அல்லது மொபைல் </t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>TC_002</t>
   </si>
   <si>
-    <t>//td[@class='login_form_label_field']/div/a</t>
-  </si>
-  <si>
     <t>Verify the Forget Password? Text</t>
   </si>
   <si>
@@ -87,27 +81,9 @@
     <t>Verify the Create an account text</t>
   </si>
   <si>
-    <t>//div[@class='mbs _52lq fsl fwb fcb']</t>
-  </si>
-  <si>
-    <t>//div[@class='_52lr fsm fwn fcg']</t>
-  </si>
-  <si>
     <t>Verify the quick text</t>
   </si>
   <si>
-    <t>//input[@name='firstname']</t>
-  </si>
-  <si>
-    <t>//input[@name='lastname']</t>
-  </si>
-  <si>
-    <t>//input[@name='reg_email__']</t>
-  </si>
-  <si>
-    <t>//input[@name='reg_passwd__']</t>
-  </si>
-  <si>
     <t>Verify the Sur name textbox place holder text</t>
   </si>
   <si>
@@ -138,9 +114,6 @@
     <t>TC_010</t>
   </si>
   <si>
-    <t>It's quick and easy.</t>
-  </si>
-  <si>
     <t>New password</t>
   </si>
   <si>
@@ -183,9 +156,6 @@
     <t>ಹೊಸ ಪಾಸ್‌ವರ್ಡ್</t>
   </si>
   <si>
-    <t>//label[@for='pass']</t>
-  </si>
-  <si>
     <t>ಲಾಗ್ ಇನ್</t>
   </si>
   <si>
@@ -201,12 +171,6 @@
     <t>Verify the month drop down list values all text</t>
   </si>
   <si>
-    <t>//div[@id='birthday_wrapper']/div[1]</t>
-  </si>
-  <si>
-    <t>//select[@name='birthday_month']</t>
-  </si>
-  <si>
     <t>ಜನ್ಮ ದಿನ</t>
   </si>
   <si>
@@ -237,9 +201,6 @@
     <t>drop_down_list</t>
   </si>
   <si>
-    <t>//p[@class='_58mv']</t>
-  </si>
-  <si>
     <t>Verify the paragraph text</t>
   </si>
   <si>
@@ -249,15 +210,6 @@
     <t>ಸೈನ್ ಅಪ್ ಮಾಡಿ ಕ್ಲಿಕ್ ಮಾಡುವ ಮೂಲಕ, ನಮ್ಮ ನಿಯಮಗಳು, ಡೇಟಾ ನೀತಿ ಮತ್ತು ಕುಕೀಸ್ ನೀತಿ ಗೆ ನೀವು ಸಮ್ಮತಿಸುತ್ತೀರಿ. ನಮ್ಮಿಂದ SMS ಅಧಿಸೂಚನೆಗಳನ್ನು ನೀವು ಸ್ವೀಕರಿಸಬಹುದು ಮತ್ತು ಯಾವ ಸಮಯದಲ್ಲಾದರೂ ಆಯ್ಕೆಯನ್ನು ಹಿಂತೆಗೆದುಕೊಳ್ಳಬಹುದು.</t>
   </si>
   <si>
-    <t>(//span[@class='_5k_2 _5dba']/label)[1]</t>
-  </si>
-  <si>
-    <t>(//span[@class='_5k_2 _5dba']/label)[2]</t>
-  </si>
-  <si>
-    <t>(//span[@class='_5k_2 _5dba']/label)[3]</t>
-  </si>
-  <si>
     <t>ಸ್ತ್ರೀ</t>
   </si>
   <si>
@@ -309,15 +261,9 @@
     <t>Verify the Sign Up button text</t>
   </si>
   <si>
-    <t>//button[@name='websubmit']</t>
-  </si>
-  <si>
     <t>Sign Up</t>
   </si>
   <si>
-    <t>//input[@type='submit']</t>
-  </si>
-  <si>
     <t>buttonlabel</t>
   </si>
   <si>
@@ -390,10 +336,82 @@
     <t>img</t>
   </si>
   <si>
-    <t>//div[@class='_5iyy']/img</t>
-  </si>
-  <si>
     <t>D:\Jakay\SampleApplication\InputFiles\conpeopleimage.png</t>
+  </si>
+  <si>
+    <t>loginpage.footer.email.label</t>
+  </si>
+  <si>
+    <t>loginpage.footer.pass.label</t>
+  </si>
+  <si>
+    <t>loginpage.footer.forgetlink.label</t>
+  </si>
+  <si>
+    <t>loginpage.footer.submit.btn</t>
+  </si>
+  <si>
+    <t>loginpage.footer.createaccount.text</t>
+  </si>
+  <si>
+    <t>loginpage.footer.quickeasy.text</t>
+  </si>
+  <si>
+    <t>loginpage.footer.firstname.txtbox</t>
+  </si>
+  <si>
+    <t>loginpage.footer.lastname.txtbox</t>
+  </si>
+  <si>
+    <t>loginpage.footer.emailandphone.txtbox</t>
+  </si>
+  <si>
+    <t>loginpage.footer.password.txtbox</t>
+  </si>
+  <si>
+    <t>loginpage.footer.birthday.label</t>
+  </si>
+  <si>
+    <t>loginpage.footer.month.dropdown</t>
+  </si>
+  <si>
+    <t>loginpage.footer.terms.paragraph</t>
+  </si>
+  <si>
+    <t>loginpage.footer.female.radiobtn</t>
+  </si>
+  <si>
+    <t>loginpage.footer.male.radiobtn</t>
+  </si>
+  <si>
+    <t>loginpage.footer.custom.radiobtn</t>
+  </si>
+  <si>
+    <t>loginpage.footer.signup.btn</t>
+  </si>
+  <si>
+    <t>loginpage.footer.connectpeople.image</t>
+  </si>
+  <si>
+    <t>It’s quick and easy.</t>
+  </si>
+  <si>
+    <t>loginpage.footer.plus.icon</t>
+  </si>
+  <si>
+    <t>Verify the Plus Icon attributes</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>#4b4f56</t>
+  </si>
+  <si>
+    <t>12px|12px</t>
   </si>
 </sst>
 </file>
@@ -741,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,25 +782,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -794,27 +812,27 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -823,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -831,426 +849,446 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
         <v>108</v>
       </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/MultiligualTestData.xlsx
+++ b/InputFiles/MultiligualTestData.xlsx
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
